--- a/propagation.xlsx
+++ b/propagation.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/janghanbin/PycharmProjects/draw_graph_by_xlsx/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rayer/Google Drive SKKU/BC Tril/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90F6C7F3-8619-1144-9887-EB0D536DCD52}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A17BF9E-7CBA-C943-9E83-07736FE94E41}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="460" windowWidth="28040" windowHeight="12120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="360" yWindow="100" windowWidth="28040" windowHeight="12120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -406,8 +406,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="B38" sqref="B38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -417,11 +417,11 @@
         <v>0.25</v>
       </c>
       <c r="B1">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="C1">
         <f>SUM(B1)</f>
-        <v>32</v>
+        <v>39</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
@@ -429,11 +429,11 @@
         <v>0.5</v>
       </c>
       <c r="B2">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C2">
         <f>SUM(C1+B2)</f>
-        <v>60</v>
+        <v>65</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
@@ -441,7 +441,7 @@
         <v>0.75</v>
       </c>
       <c r="B3">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="C3">
         <f>SUM(C2+B3)</f>
@@ -453,11 +453,11 @@
         <v>1</v>
       </c>
       <c r="B4">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C4">
         <f>SUM(C3+B4)</f>
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
@@ -465,11 +465,11 @@
         <v>1.25</v>
       </c>
       <c r="B5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C5">
         <f t="shared" ref="C5:C40" si="0">SUM(C4+B5)</f>
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
@@ -477,11 +477,11 @@
         <v>1.5</v>
       </c>
       <c r="B6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C6">
         <f t="shared" si="0"/>
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
@@ -493,7 +493,7 @@
       </c>
       <c r="C7">
         <f t="shared" si="0"/>
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
@@ -501,7 +501,7 @@
         <v>2</v>
       </c>
       <c r="B8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C8">
         <f t="shared" si="0"/>
@@ -549,11 +549,11 @@
         <v>3</v>
       </c>
       <c r="B12">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="C12">
         <f t="shared" si="0"/>
-        <v>93</v>
+        <v>92.5</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
@@ -561,11 +561,11 @@
         <v>3.25</v>
       </c>
       <c r="B13">
-        <v>0.33</v>
+        <v>0.5</v>
       </c>
       <c r="C13">
         <f t="shared" si="0"/>
-        <v>93.33</v>
+        <v>93</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
@@ -573,11 +573,11 @@
         <v>3.5</v>
       </c>
       <c r="B14">
-        <v>0.33</v>
+        <v>0.5</v>
       </c>
       <c r="C14">
         <f t="shared" si="0"/>
-        <v>93.66</v>
+        <v>93.5</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
@@ -589,7 +589,7 @@
       </c>
       <c r="C15">
         <f t="shared" si="0"/>
-        <v>93.99</v>
+        <v>93.83</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
@@ -601,7 +601,7 @@
       </c>
       <c r="C16">
         <f t="shared" si="0"/>
-        <v>94.32</v>
+        <v>94.16</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
@@ -613,7 +613,7 @@
       </c>
       <c r="C17">
         <f t="shared" si="0"/>
-        <v>94.649999999999991</v>
+        <v>94.49</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
@@ -625,7 +625,7 @@
       </c>
       <c r="C18">
         <f t="shared" si="0"/>
-        <v>94.97999999999999</v>
+        <v>94.82</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
@@ -633,11 +633,11 @@
         <v>4.75</v>
       </c>
       <c r="B19">
-        <v>0.14000000000000001</v>
+        <v>0.33</v>
       </c>
       <c r="C19">
         <f t="shared" si="0"/>
-        <v>95.11999999999999</v>
+        <v>95.149999999999991</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
@@ -649,7 +649,7 @@
       </c>
       <c r="C20">
         <f t="shared" si="0"/>
-        <v>95.259999999999991</v>
+        <v>95.289999999999992</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
@@ -661,7 +661,7 @@
       </c>
       <c r="C21">
         <f t="shared" si="0"/>
-        <v>95.399999999999991</v>
+        <v>95.429999999999993</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
@@ -673,7 +673,7 @@
       </c>
       <c r="C22">
         <f t="shared" si="0"/>
-        <v>95.539999999999992</v>
+        <v>95.57</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
@@ -685,7 +685,7 @@
       </c>
       <c r="C23">
         <f t="shared" si="0"/>
-        <v>95.679999999999993</v>
+        <v>95.71</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
@@ -697,7 +697,7 @@
       </c>
       <c r="C24">
         <f t="shared" si="0"/>
-        <v>95.82</v>
+        <v>95.85</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
@@ -709,7 +709,7 @@
       </c>
       <c r="C25">
         <f t="shared" si="0"/>
-        <v>95.96</v>
+        <v>95.99</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
@@ -721,7 +721,7 @@
       </c>
       <c r="C26">
         <f t="shared" si="0"/>
-        <v>95.97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
@@ -729,11 +729,11 @@
         <v>6.75</v>
       </c>
       <c r="B27">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="C27">
         <f t="shared" si="0"/>
-        <v>95.98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
@@ -741,11 +741,11 @@
         <v>7</v>
       </c>
       <c r="B28">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="C28">
         <f t="shared" si="0"/>
-        <v>95.990000000000009</v>
+        <v>96</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
@@ -753,11 +753,11 @@
         <v>7.25</v>
       </c>
       <c r="B29">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="C29">
         <f t="shared" si="0"/>
-        <v>96.000000000000014</v>
+        <v>96</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.2">
@@ -769,7 +769,7 @@
       </c>
       <c r="C30">
         <f t="shared" si="0"/>
-        <v>96.000000000000014</v>
+        <v>96</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.2">
@@ -781,7 +781,7 @@
       </c>
       <c r="C31">
         <f t="shared" si="0"/>
-        <v>96.000000000000014</v>
+        <v>96</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.2">
@@ -793,7 +793,7 @@
       </c>
       <c r="C32">
         <f t="shared" si="0"/>
-        <v>96.000000000000014</v>
+        <v>96</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.2">
@@ -805,7 +805,7 @@
       </c>
       <c r="C33">
         <f t="shared" si="0"/>
-        <v>96.000000000000014</v>
+        <v>96</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.2">
@@ -817,7 +817,7 @@
       </c>
       <c r="C34">
         <f t="shared" si="0"/>
-        <v>96.000000000000014</v>
+        <v>96</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.2">
@@ -829,7 +829,7 @@
       </c>
       <c r="C35">
         <f t="shared" si="0"/>
-        <v>96.000000000000014</v>
+        <v>96</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.2">
@@ -841,7 +841,7 @@
       </c>
       <c r="C36">
         <f t="shared" si="0"/>
-        <v>96.000000000000014</v>
+        <v>96</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.2">
@@ -853,7 +853,7 @@
       </c>
       <c r="C37">
         <f t="shared" si="0"/>
-        <v>96.000000000000014</v>
+        <v>96</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.2">
@@ -865,7 +865,7 @@
       </c>
       <c r="C38">
         <f t="shared" si="0"/>
-        <v>96.000000000000014</v>
+        <v>96</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.2">
@@ -877,7 +877,7 @@
       </c>
       <c r="C39">
         <f t="shared" si="0"/>
-        <v>96.000000000000014</v>
+        <v>96</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.2">
@@ -889,7 +889,7 @@
       </c>
       <c r="C40">
         <f t="shared" si="0"/>
-        <v>100.00000000000001</v>
+        <v>100</v>
       </c>
     </row>
   </sheetData>

--- a/propagation.xlsx
+++ b/propagation.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rayer/Google Drive SKKU/BC Tril/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/janghanbin/PycharmProjects/draw_graph_by_xlsx/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A17BF9E-7CBA-C943-9E83-07736FE94E41}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98FEB139-66D8-7841-98DA-33369C0C3734}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="100" windowWidth="28040" windowHeight="12120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="360" yWindow="460" windowWidth="28040" windowHeight="12120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -404,332 +404,331 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C40"/>
+  <dimension ref="A1:C41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="B38" sqref="B38"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1:E1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="B1">
-        <v>39</v>
+        <v>0</v>
       </c>
       <c r="C1">
-        <f>SUM(B1)</f>
-        <v>39</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="B2">
-        <v>26</v>
+        <v>39</v>
       </c>
       <c r="C2">
-        <f>SUM(C1+B2)</f>
-        <v>65</v>
+        <f>SUM(B2)</f>
+        <v>39</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="B3">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="C3">
         <f>SUM(C2+B3)</f>
-        <v>74</v>
+        <v>65</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="B4">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C4">
         <f>SUM(C3+B4)</f>
-        <v>79</v>
+        <v>74</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="B5">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C5">
-        <f t="shared" ref="C5:C40" si="0">SUM(C4+B5)</f>
-        <v>82</v>
+        <f>SUM(C4+B5)</f>
+        <v>79</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6">
-        <v>1.5</v>
+        <v>1.25</v>
       </c>
       <c r="B6">
         <v>3</v>
       </c>
       <c r="C6">
-        <f t="shared" si="0"/>
-        <v>85</v>
+        <f t="shared" ref="C6:C41" si="0">SUM(C5+B6)</f>
+        <v>82</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7">
-        <v>1.75</v>
+        <v>1.5</v>
       </c>
       <c r="B7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C7">
         <f t="shared" si="0"/>
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="B8">
         <v>2</v>
       </c>
       <c r="C8">
         <f t="shared" si="0"/>
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="B9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C9">
         <f t="shared" si="0"/>
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="B10">
         <v>1</v>
       </c>
       <c r="C10">
         <f t="shared" si="0"/>
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="B11">
         <v>1</v>
       </c>
       <c r="C11">
         <f t="shared" si="0"/>
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="B12">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="C12">
         <f t="shared" si="0"/>
-        <v>92.5</v>
+        <v>92</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="B13">
         <v>0.5</v>
       </c>
       <c r="C13">
         <f t="shared" si="0"/>
-        <v>93</v>
+        <v>92.5</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="B14">
         <v>0.5</v>
       </c>
       <c r="C14">
         <f t="shared" si="0"/>
-        <v>93.5</v>
+        <v>93</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="B15">
-        <v>0.33</v>
+        <v>0.5</v>
       </c>
       <c r="C15">
         <f t="shared" si="0"/>
-        <v>93.83</v>
+        <v>93.5</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="B16">
         <v>0.33</v>
       </c>
       <c r="C16">
         <f t="shared" si="0"/>
-        <v>94.16</v>
+        <v>93.83</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17">
-        <v>4.25</v>
+        <v>4</v>
       </c>
       <c r="B17">
         <v>0.33</v>
       </c>
       <c r="C17">
         <f t="shared" si="0"/>
-        <v>94.49</v>
+        <v>94.16</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18">
-        <v>4.5</v>
+        <v>4.25</v>
       </c>
       <c r="B18">
         <v>0.33</v>
       </c>
       <c r="C18">
         <f t="shared" si="0"/>
-        <v>94.82</v>
+        <v>94.49</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="B19">
         <v>0.33</v>
       </c>
       <c r="C19">
         <f t="shared" si="0"/>
-        <v>95.149999999999991</v>
+        <v>94.82</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="B20">
-        <v>0.14000000000000001</v>
+        <v>0.33</v>
       </c>
       <c r="C20">
         <f t="shared" si="0"/>
-        <v>95.289999999999992</v>
+        <v>95.149999999999991</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21">
-        <v>5.25</v>
+        <v>5</v>
       </c>
       <c r="B21">
         <v>0.14000000000000001</v>
       </c>
       <c r="C21">
         <f t="shared" si="0"/>
-        <v>95.429999999999993</v>
+        <v>95.289999999999992</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22">
-        <v>5.5</v>
+        <v>5.25</v>
       </c>
       <c r="B22">
         <v>0.14000000000000001</v>
       </c>
       <c r="C22">
         <f t="shared" si="0"/>
-        <v>95.57</v>
+        <v>95.429999999999993</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23">
-        <v>5.75</v>
+        <v>5.5</v>
       </c>
       <c r="B23">
         <v>0.14000000000000001</v>
       </c>
       <c r="C23">
         <f t="shared" si="0"/>
-        <v>95.71</v>
+        <v>95.57</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24">
-        <v>6</v>
+        <v>5.75</v>
       </c>
       <c r="B24">
         <v>0.14000000000000001</v>
       </c>
       <c r="C24">
         <f t="shared" si="0"/>
-        <v>95.85</v>
+        <v>95.71</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25">
-        <v>6.25</v>
+        <v>6</v>
       </c>
       <c r="B25">
         <v>0.14000000000000001</v>
       </c>
       <c r="C25">
         <f t="shared" si="0"/>
-        <v>95.99</v>
+        <v>95.85</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26">
-        <v>6.5</v>
+        <v>6.25</v>
       </c>
       <c r="B26">
-        <v>0.01</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="C26">
         <f t="shared" si="0"/>
-        <v>96</v>
+        <v>95.99</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27">
-        <v>6.75</v>
+        <v>6.5</v>
       </c>
       <c r="B27">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="C27">
         <f t="shared" si="0"/>
@@ -738,7 +737,7 @@
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28">
-        <v>7</v>
+        <v>6.75</v>
       </c>
       <c r="B28">
         <v>0</v>
@@ -750,7 +749,7 @@
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29">
-        <v>7.25</v>
+        <v>7</v>
       </c>
       <c r="B29">
         <v>0</v>
@@ -762,7 +761,7 @@
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30">
-        <v>7.5</v>
+        <v>7.25</v>
       </c>
       <c r="B30">
         <v>0</v>
@@ -774,7 +773,7 @@
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31">
-        <v>7.75</v>
+        <v>7.5</v>
       </c>
       <c r="B31">
         <v>0</v>
@@ -786,7 +785,7 @@
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32">
-        <v>8</v>
+        <v>7.75</v>
       </c>
       <c r="B32">
         <v>0</v>
@@ -798,7 +797,7 @@
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33">
-        <v>8.25</v>
+        <v>8</v>
       </c>
       <c r="B33">
         <v>0</v>
@@ -810,7 +809,7 @@
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34">
-        <v>8.5</v>
+        <v>8.25</v>
       </c>
       <c r="B34">
         <v>0</v>
@@ -822,7 +821,7 @@
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35">
-        <v>8.75</v>
+        <v>8.5</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -834,7 +833,7 @@
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A36">
-        <v>9</v>
+        <v>8.75</v>
       </c>
       <c r="B36">
         <v>0</v>
@@ -846,7 +845,7 @@
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A37">
-        <v>9.25</v>
+        <v>9</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -858,7 +857,7 @@
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A38">
-        <v>9.5</v>
+        <v>9.25</v>
       </c>
       <c r="B38">
         <v>0</v>
@@ -870,7 +869,7 @@
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A39">
-        <v>9.75</v>
+        <v>9.5</v>
       </c>
       <c r="B39">
         <v>0</v>
@@ -882,12 +881,24 @@
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A40">
+        <v>9.75</v>
+      </c>
+      <c r="B40">
+        <v>0</v>
+      </c>
+      <c r="C40">
+        <f t="shared" si="0"/>
+        <v>96</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A41">
         <v>10</v>
       </c>
-      <c r="B40">
+      <c r="B41">
         <v>4</v>
       </c>
-      <c r="C40">
+      <c r="C41">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
